--- a/settings.xlsx
+++ b/settings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>Name</t>
   </si>
@@ -85,7 +85,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -95,6 +95,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -413,32 +416,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="43.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="43.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="23.25">
@@ -506,8 +509,12 @@
       <c r="Z2" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="23.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -534,7 +541,7 @@
       <c r="Z3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -590,8 +597,8 @@
       <c r="Z5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -618,8 +625,8 @@
       <c r="Z6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -646,8 +653,8 @@
       <c r="Z7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -674,8 +681,8 @@
       <c r="Z8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -702,8 +709,8 @@
       <c r="Z9" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -730,7 +737,7 @@
       <c r="Z10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="4"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -759,7 +766,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -786,7 +793,7 @@
       <c r="Z12" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="4"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -814,8 +821,8 @@
       <c r="Z13" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -842,8 +849,8 @@
       <c r="Z14" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -870,8 +877,8 @@
       <c r="Z15" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -898,7 +905,7 @@
       <c r="Z16" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="4"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -926,8 +933,8 @@
       <c r="Z17" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1179,7 +1186,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="14.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="5"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1207,7 +1214,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="14.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="4"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>Name</t>
   </si>
@@ -85,7 +85,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -95,9 +95,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -416,32 +413,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="43.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="43.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="23.25">
@@ -509,12 +506,8 @@
       <c r="Z2" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="23.25">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -541,7 +534,7 @@
       <c r="Z3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="5"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -568,7 +561,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -597,8 +590,8 @@
       <c r="Z5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -625,8 +618,8 @@
       <c r="Z6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -653,8 +646,8 @@
       <c r="Z7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -681,8 +674,8 @@
       <c r="Z8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -709,8 +702,8 @@
       <c r="Z9" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -737,7 +730,7 @@
       <c r="Z10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="5"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -766,7 +759,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="2"/>
-      <c r="B12" s="5"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -793,7 +786,7 @@
       <c r="Z12" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="5"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -821,8 +814,8 @@
       <c r="Z13" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -849,8 +842,8 @@
       <c r="Z14" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -877,8 +870,8 @@
       <c r="Z15" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -905,7 +898,7 @@
       <c r="Z16" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="5"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -933,8 +926,8 @@
       <c r="Z17" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -960,7 +953,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -988,7 +981,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1016,7 +1009,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1044,7 +1037,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1072,7 +1065,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1100,7 +1093,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1128,7 +1121,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1156,7 +1149,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1184,9 +1177,9 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="2"/>
-      <c r="B27" s="6"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1212,9 +1205,9 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="2"/>
-      <c r="B28" s="5"/>
+      <c r="B28" s="4"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1240,7 +1233,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -1261,7 +1261,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Name</t>
   </si>
@@ -22,7 +22,10 @@
     <t>Value</t>
   </si>
   <si>
-    <t/>
+    <t>email</t>
+  </si>
+  <si>
+    <t>senha</t>
   </si>
 </sst>
 </file>
@@ -85,15 +88,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -413,32 +413,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="43.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="43.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="5" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="5" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="5" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="5" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="5" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="5" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="5" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="5" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="5" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="5" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="5" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="5" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="5" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="5" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="5" width="8.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="23.25">
@@ -474,12 +474,10 @@
       <c r="Z1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="23.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -506,8 +504,10 @@
       <c r="Z2" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="23.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -534,7 +534,7 @@
       <c r="Z3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="4"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -590,8 +590,8 @@
       <c r="Z5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -618,8 +618,8 @@
       <c r="Z6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -646,8 +646,8 @@
       <c r="Z7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -674,8 +674,8 @@
       <c r="Z8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -702,8 +702,8 @@
       <c r="Z9" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -730,7 +730,7 @@
       <c r="Z10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="4"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -759,7 +759,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -786,7 +786,7 @@
       <c r="Z12" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="4"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -814,8 +814,8 @@
       <c r="Z13" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -842,8 +842,8 @@
       <c r="Z14" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -870,8 +870,8 @@
       <c r="Z15" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -898,7 +898,7 @@
       <c r="Z16" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="4"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -926,8 +926,8 @@
       <c r="Z17" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1179,7 +1179,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="2"/>
-      <c r="B27" s="5"/>
+      <c r="B27" s="4"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1207,7 +1207,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="2"/>
-      <c r="B28" s="4"/>
+      <c r="B28" s="3"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
